--- a/data/original/Leaf_dmg.xlsx
+++ b/data/original/Leaf_dmg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{977A9063-C6E2-4861-9066-0CA6B4D091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5DC5AD9-8C4B-4530-9B26-B263A3317F54}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{977A9063-C6E2-4861-9066-0CA6B4D091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66504BA6-7965-4377-BBC9-6233C19E5308}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{47F19196-DA6E-49C8-93E1-4DBA9AC9B6CC}"/>
   </bookViews>
@@ -84,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +125,27 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -225,21 +243,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -268,17 +271,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2410344-209E-405C-851B-1E9081D590A8}" name="Tabla3" displayName="Tabla3" ref="A1:G481" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G481" xr:uid="{F99C7154-DB10-4B6C-87D3-B02BB73DF85F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7D037671-983A-4BAB-9F6D-CD1794433310}" name="Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6191FDF0-EFAE-4E53-983E-C2D9A0F23EC6}" name="Field" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4479A068-2D0F-40BD-9B48-87BAFD97F595}" name="Treatment" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C2D8EDEE-7AE6-481B-AB0A-82362D6813E3}" name="Repeat" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D2B2ABA1-9FFD-41B8-AE9E-7DD18955C382}" name="Leaves_dmg_10leaves" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F9332C32-39CA-4B2D-B10D-2F630B5F9B30}" name="Marks_5leaves" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2CE81DEA-0516-445A-BB76-BBBF6303A104}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D037671-983A-4BAB-9F6D-CD1794433310}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6191FDF0-EFAE-4E53-983E-C2D9A0F23EC6}" name="Field" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4479A068-2D0F-40BD-9B48-87BAFD97F595}" name="Treatment" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C2D8EDEE-7AE6-481B-AB0A-82362D6813E3}" name="Repeat" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D2B2ABA1-9FFD-41B8-AE9E-7DD18955C382}" name="Leaves_dmg_10leaves" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F9332C32-39CA-4B2D-B10D-2F630B5F9B30}" name="Marks_5leaves" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2CE81DEA-0516-445A-BB76-BBBF6303A104}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,7 +591,7 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
